--- a/Papers/Overview Papers.xlsx
+++ b/Papers/Overview Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive\Documents\GitHub\Microsoft\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE2DFE-C7E9-447A-9D15-F57492F15D5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0B8EB-5693-4CDF-9ACB-CDD6C4CFDDAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Paper Name</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>What can it be used for?</t>
+  </si>
+  <si>
+    <t>CNN_Based_PE_Scitech_Pasqualetto_manuscript</t>
+  </si>
+  <si>
+    <t>VI navigation filter</t>
+  </si>
+  <si>
+    <t>setup on how to make the filter</t>
   </si>
 </sst>
 </file>
@@ -351,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -375,6 +384,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Papers/Overview Papers.xlsx
+++ b/Papers/Overview Papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete\OneDrive\Documents\GitHub\Microsoft\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toon Stolk\Documents\Education\Space Engineering\Courses\Microsat Engineering\GitHub Repository\Microsoft\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0B8EB-5693-4CDF-9ACB-CDD6C4CFDDAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE781EAB-5D2C-4FF9-874F-11F982EE9C7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Paper Name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>setup on how to make the filter</t>
+  </si>
+  <si>
+    <t>Review of the Robustness and Applicability of Monocular Pose Estimation Systems for Relative Navigation with an Uncooperative Spacecraft</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -368,7 +371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="116.109375" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -395,6 +398,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Papers/Overview Papers.xlsx
+++ b/Papers/Overview Papers.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toon Stolk\Documents\Education\Space Engineering\Courses\Microsat Engineering\GitHub Repository\Microsoft\Papers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE781EAB-5D2C-4FF9-874F-11F982EE9C7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Paper Name</t>
   </si>
@@ -46,14 +40,40 @@
   </si>
   <si>
     <t>Review of the Robustness and Applicability of Monocular Pose Estimation Systems for Relative Navigation with an Uncooperative Spacecraft</t>
+  </si>
+  <si>
+    <t>LONG-TERM ANALYTICAL PROPAGATION OF SATELLITE RELATIVE MOTION IN PERTURBED ORBITS</t>
+  </si>
+  <si>
+    <t>Modellen van J_2 , third body en solar pressure invloeden op satellieten in alle orbits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matlab attitude &amp; dynamics formulas </t>
+  </si>
+  <si>
+    <t>REDUCED-DYNAMICS POSE ESTIMATION FOR NON-COOPERATIVE SPACECRAFT RENDEZVOUS USING MONOCULAR VISION</t>
+  </si>
+  <si>
+    <t>Positie en orientate bepalen met behulp van image processing van 1 camera door het filteren met een kalman filter</t>
+  </si>
+  <si>
+    <t>Orientatie en aanpak van het probleem, en vergelijkingsmateriaal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,35 +376,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -403,7 +424,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Papers/Overview Papers.xlsx
+++ b/Papers/Overview Papers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Paper Name</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>Orientatie en aanpak van het probleem, en vergelijkingsmateriaal</t>
+  </si>
+  <si>
+    <t>CNN-Based Pose Estimation System for Close-Proximity Operations Around Uncooperative Spacecraft</t>
+  </si>
+  <si>
+    <t>De foutmarges van de gemeten pose van een satelliet met 1 camera na het filteren etc.</t>
+  </si>
+  <si>
+    <t>State vector opstellen en navigation filter toepassing (CW)</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Uitleg van de verschillende stappen</t>
+  </si>
+  <si>
+    <t>Overzicht van de stappen (CW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review of the robustness and applicability of monocular pose estimation systems for relative navigation with an uncooperative spacecraft </t>
+  </si>
+  <si>
+    <t>Verschil in verschillende pose estimation modellen</t>
+  </si>
+  <si>
+    <t>Vergelijking</t>
   </si>
 </sst>
 </file>
@@ -376,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +473,39 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
